--- a/src/static/house_asset2.xlsx
+++ b/src/static/house_asset2.xlsx
@@ -1,50 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\400_業務\2022_業務\水害統計\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="県別家屋被害" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,28 +53,88 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -347,14 +400,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>県別家屋被害コード</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>県コード</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>県別家屋被害対象年</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>開始日</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>終了日</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>県別家屋評価額</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>